--- a/Feature-Analysis/Resize Feature/s_15_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_15_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.41623842588</v>
+        <v>738157.41623842588</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.41686342587</v>
+        <v>738157.41686342587</v>
       </c>
       <c r="C3" s="0">
         <v>53.999998793005943</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.41709490737</v>
+        <v>738157.41709490737</v>
       </c>
       <c r="C4" s="0">
         <v>74.000000953674316</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.41752314812</v>
+        <v>738157.41752314812</v>
       </c>
       <c r="C5" s="0">
         <v>111.00000143051147</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.41784722218</v>
+        <v>738157.41784722218</v>
       </c>
       <c r="C6" s="0">
         <v>139.00000043213367</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.41826388892</v>
+        <v>738157.41826388892</v>
       </c>
       <c r="C7" s="0">
         <v>175.00000633299351</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.4186574074</v>
+        <v>738157.4186574074</v>
       </c>
       <c r="C8" s="0">
         <v>209.00000296533108</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.41895833332</v>
+        <v>738157.41895833332</v>
       </c>
       <c r="C9" s="0">
         <v>235.00000275671482</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.41936342593</v>
+        <v>738157.41936342593</v>
       </c>
       <c r="C10" s="0">
         <v>270.00000402331352</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.41976851854</v>
+        <v>738157.41976851854</v>
       </c>
       <c r="C11" s="0">
         <v>305.00000528991222</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.42018518515</v>
+        <v>738157.42018518515</v>
       </c>
       <c r="C12" s="0">
         <v>341.00000113248825</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.42060185189</v>
+        <v>738157.42060185189</v>
       </c>
       <c r="C13" s="0">
         <v>377.00000703334808</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.42087962967</v>
+        <v>738157.42087962967</v>
       </c>
       <c r="C14" s="0">
         <v>401.00000761449337</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.42130787042</v>
+        <v>738157.42130787042</v>
       </c>
       <c r="C15" s="0">
         <v>438.00000809133053</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.4217013889</v>
+        <v>738157.4217013889</v>
       </c>
       <c r="C16" s="0">
         <v>472.0000047236681</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.42210648151</v>
+        <v>738157.42210648151</v>
       </c>
       <c r="C17" s="0">
         <v>507.0000059902668</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.42251157411</v>
+        <v>738157.42251157411</v>
       </c>
       <c r="C18" s="0">
         <v>542.0000072568655</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.42280092591</v>
+        <v>738157.42280092591</v>
       </c>
       <c r="C19" s="0">
         <v>567.00000241398811</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.42321759264</v>
+        <v>738157.42321759264</v>
       </c>
       <c r="C20" s="0">
         <v>603.00000831484795</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.42364583327</v>
+        <v>738157.42364583327</v>
       </c>
       <c r="C21" s="0">
         <v>639.9999987334013</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.42427083338</v>
+        <v>738157.42427083338</v>
       </c>
       <c r="C22" s="0">
         <v>694.00000758469105</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.42442129634</v>
+        <v>738157.42442129634</v>
       </c>
       <c r="C23" s="0">
         <v>707.00000748038292</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.42483796296</v>
+        <v>738157.42483796296</v>
       </c>
       <c r="C24" s="0">
         <v>743.00000332295895</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.42524305556</v>
+        <v>738157.42524305556</v>
       </c>
       <c r="C25" s="0">
         <v>778.00000458955765</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.42552083335</v>
+        <v>738157.42552083335</v>
       </c>
       <c r="C26" s="0">
         <v>802.00000517070293</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.42591435183</v>
+        <v>738157.42591435183</v>
       </c>
       <c r="C27" s="0">
         <v>836.0000018030405</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.42633101856</v>
+        <v>738157.42633101856</v>
       </c>
       <c r="C28" s="0">
         <v>872.00000770390034</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.42677083332</v>
+        <v>738157.42677083332</v>
       </c>
       <c r="C29" s="0">
         <v>910.00000275671482</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.4271643518</v>
+        <v>738157.4271643518</v>
       </c>
       <c r="C30" s="0">
         <v>943.99999938905239</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.42744212958</v>
+        <v>738157.42744212958</v>
       </c>
       <c r="C31" s="0">
         <v>967.99999997019768</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.42784722219</v>
+        <v>738157.42784722219</v>
       </c>
       <c r="C32" s="0">
         <v>1003.0000012367964</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.4282523148</v>
+        <v>738157.4282523148</v>
       </c>
       <c r="C33" s="0">
         <v>1038.0000025033951</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.42865740741</v>
+        <v>738157.42865740741</v>
       </c>
       <c r="C34" s="0">
         <v>1073.0000037699938</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.42907407403</v>
+        <v>738157.42907407403</v>
       </c>
       <c r="C35" s="0">
         <v>1108.9999996125698</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.42950231477</v>
+        <v>738157.42950231477</v>
       </c>
       <c r="C36" s="0">
         <v>1146.000000089407</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.42979166668</v>
+        <v>738157.42979166668</v>
       </c>
       <c r="C37" s="0">
         <v>1171.0000053048134</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.4302083333</v>
+        <v>738157.4302083333</v>
       </c>
       <c r="C38" s="0">
         <v>1207.0000011473894</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.43061342591</v>
+        <v>738157.43061342591</v>
       </c>
       <c r="C39" s="0">
         <v>1242.0000024139881</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.43100694439</v>
+        <v>738157.43100694439</v>
       </c>
       <c r="C40" s="0">
         <v>1275.9999990463257</v>
